--- a/docs/sprint 1 - cambios/Sprint 1 Backlog -  Sprint 1 Planning (version 2).xlsx
+++ b/docs/sprint 1 - cambios/Sprint 1 Backlog -  Sprint 1 Planning (version 2).xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sprint 1 Planning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -587,9 +586,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -619,6 +615,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -628,6 +648,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,21 +693,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -673,38 +708,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -738,18 +749,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1071,11 +1070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257478232"/>
-        <c:axId val="257135432"/>
+        <c:axId val="266554848"/>
+        <c:axId val="266556024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257478232"/>
+        <c:axId val="266554848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,12 +1186,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257135432"/>
+        <c:crossAx val="266556024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257135432"/>
+        <c:axId val="266556024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1303,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257478232"/>
+        <c:crossAx val="266554848"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2209,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,11 +2221,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2244,164 +2243,164 @@
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="47" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:10" ht="168" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="69" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="24" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
@@ -2413,6 +2412,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
@@ -2422,15 +2430,6 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2465,19 +2464,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2535,125 +2534,125 @@
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="65" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
     </row>
     <row r="7" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="62"/>
+      <c r="H7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="63">
         <v>4</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="21">
+      <c r="G8" s="63"/>
+      <c r="H8" s="20">
         <v>4</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>4</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>4</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>4</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>0</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>0</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>0</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="13">
         <v>0</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="13">
         <v>0</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="13">
         <v>0</v>
       </c>
       <c r="S8" t="s">
@@ -2661,322 +2660,322 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="59">
+      <c r="E9" s="17"/>
+      <c r="F9" s="63">
         <v>8</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="21">
+      <c r="G9" s="63"/>
+      <c r="H9" s="20">
         <v>8</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>8</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>4</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>4</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>4</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>4</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <v>4</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <v>4</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>4</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="60">
+      <c r="E10" s="12"/>
+      <c r="F10" s="64">
         <v>7</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="22">
+      <c r="G10" s="65"/>
+      <c r="H10" s="21">
         <v>7</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>7</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>7</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>7</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="18">
         <v>7</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>5</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="13">
         <v>3</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="13">
         <v>0</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="13">
         <v>0</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="64">
         <v>6</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="22">
+      <c r="G11" s="65"/>
+      <c r="H11" s="21">
         <v>6</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>6</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>6</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>6</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="18">
         <v>6</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>6</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <v>6</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <v>3</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="13">
         <v>0</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="60">
+      <c r="E12" s="17"/>
+      <c r="F12" s="64">
         <v>5</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="22">
+      <c r="G12" s="65"/>
+      <c r="H12" s="21">
         <v>5</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>5</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>5</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>5</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <v>5</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>5</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <v>5</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <v>5</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="13">
         <v>3</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="60">
+      <c r="E13" s="17"/>
+      <c r="F13" s="64">
         <v>5</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="22">
+      <c r="G13" s="65"/>
+      <c r="H13" s="21">
         <v>5</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>5</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>5</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>5</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <v>5</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <v>5</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="13">
         <v>5</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="13">
         <v>5</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="13">
         <v>3</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f>SUM(F8:F13)</f>
         <v>35</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19">
         <f>SUM(H8:H13)</f>
         <v>35</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f>SUM(I8:I13)</f>
         <v>35</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <f t="shared" ref="J14:Q14" si="0">SUM(J8:J13)</f>
         <v>31</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="23">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="22">
         <v>35</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f>F14-($F$14/9)</f>
         <v>31.111111111111111</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="19">
         <f>I15-($F$14/9)</f>
         <v>27.222222222222221</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <f t="shared" ref="K15:Q15" si="1">J15-($F$14/9)</f>
         <v>23.333333333333332</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="19">
         <f t="shared" si="1"/>
         <v>19.444444444444443</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <f t="shared" si="1"/>
         <v>15.555555555555554</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="19">
         <f t="shared" si="1"/>
         <v>11.666666666666664</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="19">
         <f t="shared" si="1"/>
         <v>7.777777777777775</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="19">
         <f t="shared" si="1"/>
         <v>3.8888888888888862</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
